--- a/Plots/MohitPlots/human_dataset_random_CM.xlsx
+++ b/Plots/MohitPlots/human_dataset_random_CM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
   <si>
     <t>X01_HSC</t>
   </si>
@@ -176,84 +176,6 @@
     <t>Unassigned</t>
   </si>
   <si>
-    <t>X01.HSC</t>
-  </si>
-  <si>
-    <t>X02.Early.Eryth</t>
-  </si>
-  <si>
-    <t>X03.Late.Eryth</t>
-  </si>
-  <si>
-    <t>X04.Early.Baso</t>
-  </si>
-  <si>
-    <t>X05.CMP.LMPP</t>
-  </si>
-  <si>
-    <t>X06.CLP.1</t>
-  </si>
-  <si>
-    <t>X07.GMP</t>
-  </si>
-  <si>
-    <t>X08.GMP.Neut</t>
-  </si>
-  <si>
-    <t>X09.pDC</t>
-  </si>
-  <si>
-    <t>X10.cDC</t>
-  </si>
-  <si>
-    <t>X11.CD14.Mono.1</t>
-  </si>
-  <si>
-    <t>X12.CD14.Mono.2</t>
-  </si>
-  <si>
-    <t>X13.CD16.Mono</t>
-  </si>
-  <si>
-    <t>X14.Unk</t>
-  </si>
-  <si>
-    <t>X15.CLP.2</t>
-  </si>
-  <si>
-    <t>X16.Pre.B</t>
-  </si>
-  <si>
-    <t>X17.B</t>
-  </si>
-  <si>
-    <t>X18.Plasma</t>
-  </si>
-  <si>
-    <t>X19.CD8.N</t>
-  </si>
-  <si>
-    <t>X20.CD4.N1</t>
-  </si>
-  <si>
-    <t>X21.CD4.N2</t>
-  </si>
-  <si>
-    <t>X22.CD4.M</t>
-  </si>
-  <si>
-    <t>X23.CD8.EM</t>
-  </si>
-  <si>
-    <t>X24.CD8.CM</t>
-  </si>
-  <si>
-    <t>X25.NK</t>
-  </si>
-  <si>
-    <t>X26.Unk</t>
-  </si>
-  <si>
     <t>01.HSC</t>
   </si>
   <si>
@@ -4970,87 +4892,87 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="Y1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B2" t="n">
         <v>0.9076212471131639</v>
@@ -5133,7 +5055,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B3" t="n">
         <v>0.006928406466512702</v>
@@ -5216,7 +5138,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -5299,7 +5221,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -5382,7 +5304,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B6" t="n">
         <v>0.07621247113163972</v>
@@ -5465,7 +5387,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B7" t="n">
         <v>0.009237875288683603</v>
@@ -5548,7 +5470,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -5631,7 +5553,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -5714,7 +5636,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -5797,7 +5719,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -5880,7 +5802,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -5963,7 +5885,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -6046,7 +5968,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -6129,7 +6051,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -6212,7 +6134,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6295,7 +6217,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6378,7 +6300,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -6461,7 +6383,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -6544,7 +6466,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -6627,7 +6549,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -6710,7 +6632,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -6793,7 +6715,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -6876,7 +6798,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -6959,7 +6881,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -7042,7 +6964,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -7125,7 +7047,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -7222,87 +7144,87 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="Y1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="Z1" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="AA1" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B2" t="n">
         <v>0.6189376443418014</v>
@@ -7385,7 +7307,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -7468,7 +7390,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -7551,7 +7473,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -7634,7 +7556,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B6" t="n">
         <v>0.011547344110854504</v>
@@ -7717,7 +7639,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -7800,7 +7722,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -7883,7 +7805,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -7966,7 +7888,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -8049,7 +7971,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -8132,7 +8054,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -8215,7 +8137,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -8298,7 +8220,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -8381,7 +8303,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -8464,7 +8386,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -8547,7 +8469,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -8630,7 +8552,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
@@ -8713,7 +8635,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -8796,7 +8718,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -8879,7 +8801,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -8962,7 +8884,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -9045,7 +8967,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -9128,7 +9050,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -9211,7 +9133,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -9294,7 +9216,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
